--- a/Gui/output_templates/inspectable_template.xlsx
+++ b/Gui/output_templates/inspectable_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\csh\lesinspectables\Kzs\OutputClasses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\csh\lesinspectables\Gui\output_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="suvirinimai" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">suvirinimai!$3:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">suvirinimai!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Suvirinimo duomenys</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -56,34 +53,19 @@
     <t>Sąlyginis kodas</t>
   </si>
   <si>
-    <t>Patikrinti iki</t>
-  </si>
-  <si>
     <t>Kelintas tikrinimas</t>
   </si>
   <si>
-    <t>Patikrinta</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Rezultatas</t>
-  </si>
-  <si>
-    <t>Operatorius</t>
-  </si>
-  <si>
-    <t>Kodas</t>
-  </si>
-  <si>
-    <t>Parašas</t>
-  </si>
-  <si>
-    <t>BĖGIŲ SUVIRINIMŲ PATIKRINIMO UŽDUOTIS</t>
-  </si>
-  <si>
-    <t>Patikrinti iki: 2017-12-15</t>
+    <t>Galima tikrinti nuo</t>
+  </si>
+  <si>
+    <t>Reikia patikrinti iki</t>
+  </si>
+  <si>
+    <t>Kelio koordinatė</t>
+  </si>
+  <si>
+    <t>Termino savaitė</t>
   </si>
 </sst>
 </file>
@@ -143,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -158,9 +140,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,17 +148,78 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -455,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="T87" sqref="T87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,123 +511,71 @@
     <col min="6" max="6" width="4.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="10.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="2"/>
+    <col min="9" max="10" width="11.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-  </mergeCells>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="06.4">
+      <formula>NOT(ISERROR(SEARCH("06.4",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>1</formula>
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
